--- a/config_aomi_5.25/game_module_config.xlsx
+++ b/config_aomi_5.25/game_module_config.xlsx
@@ -3276,7 +3276,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3600,7 +3600,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3848,8 +3848,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3929,25 +3929,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3958,52 +3942,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4024,7 +3967,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4038,11 +4023,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4064,14 +4049,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4128,7 +4128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,19 +4146,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,79 +4170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4260,13 +4194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4278,19 +4212,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,11 +4325,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4352,73 +4417,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4430,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,137 +4442,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5046,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G344" sqref="G344"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12043,13 +12043,13 @@
         <v>797</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>798</v>
@@ -13526,13 +13526,13 @@
         <v>977</v>
       </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="32" t="s">
         <v>978</v>

--- a/config_aomi_5.25/game_module_config.xlsx
+++ b/config_aomi_5.25/game_module_config.xlsx
@@ -3276,7 +3276,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>话费礼包</t>
+    <t>幸运福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3778,10 +3778,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_003_hllb</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3928,8 +3928,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3942,11 +3964,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3966,60 +4002,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4039,27 +4034,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4072,6 +4049,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4128,19 +4128,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4158,13 +4176,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,127 +4290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4326,6 +4326,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4336,6 +4351,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4357,10 +4381,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4370,7 +4392,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4392,33 +4414,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4430,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,137 +4442,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5046,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12376,13 +12376,13 @@
         <v>837</v>
       </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>723</v>

--- a/config_aomi_5.25/game_module_config.xlsx
+++ b/config_aomi_5.25/game_module_config.xlsx
@@ -3603,22 +3603,22 @@
     <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3778,7 +3778,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_003_hllb</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
   </si>
   <si>
     <t>话费礼包</t>
@@ -3928,16 +3928,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3964,8 +3971,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3980,15 +3996,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3997,6 +4005,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4034,34 +4057,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4075,6 +4070,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4128,7 +4128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,13 +4158,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,7 +4188,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,49 +4284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4236,67 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,16 +4325,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4351,6 +4351,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4397,21 +4412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4430,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,137 +4442,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5046,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
+      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_aomi_5.25/game_module_config.xlsx
+++ b/config_aomi_5.25/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3823,6 +3823,9 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
     <t>act_054_byns</t>
   </si>
   <si>
@@ -3848,10 +3851,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3929,7 +3932,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3937,6 +3940,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3950,30 +3974,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3982,21 +3985,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4033,6 +4021,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4059,7 +4052,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4070,11 +4078,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4128,7 +4131,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,31 +4179,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,7 +4227,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4194,43 +4269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4242,61 +4293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,21 +4328,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4355,26 +4343,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4412,6 +4400,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4430,10 +4433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,16 +4445,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4460,119 +4463,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5046,11 +5049,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D315" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
+      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13670,16 +13673,16 @@
         <v>996</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:9">
@@ -13687,13 +13690,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="47" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C340" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D340" s="47" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -13705,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -13735,7 +13738,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi_5.25/game_module_config.xlsx
+++ b/config_aomi_5.25/game_module_config.xlsx
@@ -3630,7 +3630,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3848,8 +3848,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3929,16 +3929,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3956,9 +3965,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3966,22 +3981,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3994,11 +3994,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4018,11 +4023,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4034,11 +4038,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4052,14 +4056,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4070,11 +4075,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4128,7 +4128,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,7 +4158,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,19 +4200,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,25 +4242,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4206,61 +4266,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4278,25 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,32 +4325,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4372,10 +4351,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4396,29 +4397,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4430,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,137 +4442,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5050,7 +5050,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
+      <selection pane="bottomRight" activeCell="G344" sqref="G344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_aomi_5.25/game_module_config.xlsx
+++ b/config_aomi_5.25/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi_5.25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1840,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1849,7 +1900,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1858,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1884,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1901,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1918,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1935,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1952,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1978,7 +2035,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1987,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2004,7 +2062,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2013,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2039,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2065,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2082,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2114,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2124,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2799,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3127,6 +3193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3137,6 +3204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3455,6 +3523,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3464,7 +3533,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3473,6 +3542,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3553,6 +3623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3563,6 +3634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3692,6 +3764,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3702,6 +3775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3849,14 +3923,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3868,49 +3936,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3922,171 +3993,52 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4101,13 +4053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4129,182 +4081,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4327,255 +4105,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4605,16 +4141,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4726,63 +4262,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5040,20 +4532,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D315" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
+      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5069,7 +4560,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +4589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6422,7 +5913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6604,7 +6095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6968,7 +6459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7020,7 +6511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8138,7 +7629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9708,7 +9199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9732,7 +9223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9756,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10778,7 +10269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10801,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10824,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10847,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10870,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10893,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10916,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10939,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10962,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11389,7 +10880,7 @@
         <v>719</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -11520,7 +11011,7 @@
         <v>735</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -11532,7 +11023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11558,7 +11049,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11584,7 +11075,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11610,7 +11101,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11636,7 +11127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11714,7 +11205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11740,7 +11231,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11766,7 +11257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11792,7 +11283,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11818,7 +11309,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11844,7 +11335,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12032,7 +11523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12058,7 +11549,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -12081,7 +11572,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12235,7 +11726,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12261,7 +11752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12313,7 +11804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12339,7 +11830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12365,7 +11856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -12391,7 +11882,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12417,7 +11908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12443,7 +11934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12469,7 +11960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12495,7 +11986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12521,7 +12012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12547,7 +12038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12651,7 +12142,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12677,7 +12168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12703,7 +12194,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12729,7 +12220,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12755,7 +12246,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12781,7 +12272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12807,7 +12298,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12833,7 +12324,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12859,7 +12350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12885,7 +12376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12911,7 +12402,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12937,7 +12428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12963,7 +12454,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12989,7 +12480,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13012,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13038,7 +12529,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13064,7 +12555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13090,7 +12581,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13116,7 +12607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13139,7 +12630,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13162,7 +12653,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13185,7 +12676,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13208,7 +12699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13231,7 +12722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13257,7 +12748,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13281,7 +12772,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13307,7 +12798,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13330,7 +12821,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13359,7 +12850,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13385,7 +12876,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13411,7 +12902,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13437,7 +12928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13590,7 +13081,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9">
       <c r="A336" s="13">
         <v>335</v>
       </c>
@@ -13613,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" s="13">
         <v>336</v>
       </c>
@@ -13685,7 +13176,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -13712,39 +13203,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>